--- a/input_xlsx/[MF]_[31-03-2019].xlsx
+++ b/input_xlsx/[MF]_[31-03-2019].xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VOLUNTEER\TAMBORA MUDA\PENULISAN MANUSCRIPT\Biodiverskripsi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="8130" tabRatio="502" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="8130" tabRatio="502"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,7 +899,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2049,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2078,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7132,34 +7127,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="35" style="3" customWidth="1"/>
     <col min="12" max="12" width="34.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="134.375" customWidth="1"/>
-    <col min="19" max="19" width="42.625" customWidth="1"/>
+    <col min="18" max="18" width="134.33203125" customWidth="1"/>
+    <col min="19" max="19" width="42.58203125" customWidth="1"/>
     <col min="20" max="20" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
@@ -7221,7 +7216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
@@ -7273,7 +7268,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
@@ -7325,7 +7320,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -7377,7 +7372,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>43</v>
       </c>
@@ -7429,7 +7424,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>43</v>
       </c>
@@ -7481,7 +7476,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>43</v>
       </c>
@@ -7533,7 +7528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>43</v>
       </c>
@@ -7585,7 +7580,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>43</v>
       </c>
@@ -7637,7 +7632,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>300</v>
       </c>
@@ -7689,7 +7684,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>300</v>
       </c>
@@ -7741,7 +7736,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>300</v>
       </c>
@@ -7793,7 +7788,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>398</v>
       </c>
@@ -7845,7 +7840,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>398</v>
       </c>
@@ -7897,7 +7892,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>398</v>
       </c>
@@ -7949,7 +7944,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>398</v>
       </c>
@@ -8001,7 +7996,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>467</v>
       </c>
@@ -8053,7 +8048,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>467</v>
       </c>
@@ -8105,7 +8100,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>467</v>
       </c>
@@ -8157,7 +8152,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>467</v>
       </c>
@@ -8209,7 +8204,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>467</v>
       </c>
@@ -8261,7 +8256,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>467</v>
       </c>
@@ -8313,7 +8308,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>467</v>
       </c>
@@ -8365,7 +8360,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>543</v>
       </c>
@@ -8417,7 +8412,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>543</v>
       </c>
@@ -8469,7 +8464,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>543</v>
       </c>
@@ -8521,7 +8516,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>543</v>
       </c>
@@ -8573,7 +8568,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>543</v>
       </c>
@@ -8625,7 +8620,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>543</v>
       </c>
@@ -8677,7 +8672,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>651</v>
       </c>
@@ -8729,7 +8724,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>651</v>
       </c>
@@ -8781,7 +8776,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>651</v>
       </c>
@@ -8833,7 +8828,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>651</v>
       </c>
@@ -8885,7 +8880,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>651</v>
       </c>
@@ -8937,7 +8932,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>651</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>651</v>
       </c>
@@ -9041,7 +9036,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>651</v>
       </c>
@@ -9093,7 +9088,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>651</v>
       </c>
@@ -9145,7 +9140,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>651</v>
       </c>
@@ -9197,7 +9192,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>651</v>
       </c>
@@ -9249,7 +9244,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>651</v>
       </c>
@@ -9301,7 +9296,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>651</v>
       </c>
@@ -9353,7 +9348,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>651</v>
       </c>
@@ -9405,9 +9400,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>908</v>
@@ -9457,9 +9452,9 @@
         <v>941</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>909</v>
@@ -9509,9 +9504,9 @@
         <v>943</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B46" s="40" t="s">
         <v>910</v>
@@ -9561,9 +9556,9 @@
         <v>944</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B47" s="40" t="s">
         <v>937</v>
@@ -9613,9 +9608,9 @@
         <v>942</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>938</v>
@@ -9665,9 +9660,9 @@
         <v>894</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B49" s="40" t="s">
         <v>939</v>
@@ -9717,9 +9712,9 @@
         <v>895</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="40" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>940</v>
@@ -9769,7 +9764,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>989</v>
       </c>
@@ -9821,7 +9816,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="40" t="s">
         <v>989</v>
       </c>
@@ -9873,7 +9868,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="40" t="s">
         <v>989</v>
       </c>
@@ -9925,7 +9920,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="40" t="s">
         <v>989</v>
       </c>
@@ -9976,7 +9971,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="40" t="s">
         <v>989</v>
       </c>
@@ -10027,7 +10022,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="s">
         <v>989</v>
       </c>
@@ -10079,7 +10074,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="40" t="s">
         <v>989</v>
       </c>
@@ -10131,7 +10126,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="40" t="s">
         <v>989</v>
       </c>
@@ -10199,32 +10194,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A467" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A339" sqref="A339:A349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="39.125" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
-    <col min="17" max="17" width="55.125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="39.08203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
+    <col min="13" max="13" width="17.08203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="55.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -10277,7 +10272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>44</v>
       </c>
@@ -10314,7 +10309,7 @@
       </c>
       <c r="Q2" s="41"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
@@ -10351,7 +10346,7 @@
       </c>
       <c r="Q3" s="41"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>44</v>
       </c>
@@ -10388,7 +10383,7 @@
       </c>
       <c r="Q4" s="41"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>44</v>
       </c>
@@ -10425,7 +10420,7 @@
       </c>
       <c r="Q5" s="41"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>44</v>
       </c>
@@ -10462,7 +10457,7 @@
       </c>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>44</v>
       </c>
@@ -10499,7 +10494,7 @@
       </c>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>44</v>
       </c>
@@ -10536,7 +10531,7 @@
       </c>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>44</v>
       </c>
@@ -10573,7 +10568,7 @@
       </c>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>44</v>
       </c>
@@ -10610,7 +10605,7 @@
       </c>
       <c r="Q10" s="41"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -10647,7 +10642,7 @@
       </c>
       <c r="Q11" s="41"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>44</v>
       </c>
@@ -10684,7 +10679,7 @@
       </c>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>44</v>
       </c>
@@ -10721,7 +10716,7 @@
       </c>
       <c r="Q13" s="41"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>44</v>
       </c>
@@ -10758,7 +10753,7 @@
       </c>
       <c r="Q14" s="41"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>44</v>
       </c>
@@ -10795,7 +10790,7 @@
       </c>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>44</v>
       </c>
@@ -10832,7 +10827,7 @@
       </c>
       <c r="Q16" s="41"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
@@ -10869,7 +10864,7 @@
       </c>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>44</v>
       </c>
@@ -10906,7 +10901,7 @@
       </c>
       <c r="Q18" s="41"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>44</v>
       </c>
@@ -10943,7 +10938,7 @@
       </c>
       <c r="Q19" s="41"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>44</v>
       </c>
@@ -10980,7 +10975,7 @@
       </c>
       <c r="Q20" s="41"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>44</v>
       </c>
@@ -11017,7 +11012,7 @@
       </c>
       <c r="Q21" s="41"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>44</v>
       </c>
@@ -11054,7 +11049,7 @@
       </c>
       <c r="Q22" s="41"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>45</v>
       </c>
@@ -11091,7 +11086,7 @@
       </c>
       <c r="Q23" s="41"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>45</v>
       </c>
@@ -11128,7 +11123,7 @@
       </c>
       <c r="Q24" s="41"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
         <v>45</v>
       </c>
@@ -11165,7 +11160,7 @@
       </c>
       <c r="Q25" s="41"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>45</v>
       </c>
@@ -11202,7 +11197,7 @@
       </c>
       <c r="Q26" s="41"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>45</v>
       </c>
@@ -11239,7 +11234,7 @@
       </c>
       <c r="Q27" s="41"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="s">
         <v>45</v>
       </c>
@@ -11276,7 +11271,7 @@
       </c>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>45</v>
       </c>
@@ -11313,7 +11308,7 @@
       </c>
       <c r="Q29" s="41"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>45</v>
       </c>
@@ -11350,7 +11345,7 @@
       </c>
       <c r="Q30" s="41"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>45</v>
       </c>
@@ -11387,7 +11382,7 @@
       </c>
       <c r="Q31" s="41"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>45</v>
       </c>
@@ -11424,7 +11419,7 @@
       </c>
       <c r="Q32" s="41"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>45</v>
       </c>
@@ -11461,7 +11456,7 @@
       </c>
       <c r="Q33" s="41"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>45</v>
       </c>
@@ -11498,7 +11493,7 @@
       </c>
       <c r="Q34" s="41"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>45</v>
       </c>
@@ -11535,7 +11530,7 @@
       </c>
       <c r="Q35" s="41"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>45</v>
       </c>
@@ -11572,7 +11567,7 @@
       </c>
       <c r="Q36" s="41"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>45</v>
       </c>
@@ -11609,7 +11604,7 @@
       </c>
       <c r="Q37" s="41"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>45</v>
       </c>
@@ -11646,7 +11641,7 @@
       </c>
       <c r="Q38" s="41"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>45</v>
       </c>
@@ -11683,7 +11678,7 @@
       </c>
       <c r="Q39" s="41"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>45</v>
       </c>
@@ -11720,7 +11715,7 @@
       </c>
       <c r="Q40" s="41"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>45</v>
       </c>
@@ -11757,7 +11752,7 @@
       </c>
       <c r="Q41" s="41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>45</v>
       </c>
@@ -11794,7 +11789,7 @@
       </c>
       <c r="Q42" s="41"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>45</v>
       </c>
@@ -11831,7 +11826,7 @@
       </c>
       <c r="Q43" s="41"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
         <v>45</v>
       </c>
@@ -11868,7 +11863,7 @@
       </c>
       <c r="Q44" s="41"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
         <v>45</v>
       </c>
@@ -11905,7 +11900,7 @@
       </c>
       <c r="Q45" s="41"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>45</v>
       </c>
@@ -11942,7 +11937,7 @@
       </c>
       <c r="Q46" s="41"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
         <v>45</v>
       </c>
@@ -11979,7 +11974,7 @@
       </c>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
         <v>45</v>
       </c>
@@ -12016,7 +12011,7 @@
       </c>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="40" t="s">
         <v>46</v>
       </c>
@@ -12053,7 +12048,7 @@
       </c>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="40" t="s">
         <v>46</v>
       </c>
@@ -12090,7 +12085,7 @@
       </c>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>46</v>
       </c>
@@ -12127,7 +12122,7 @@
       </c>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="40" t="s">
         <v>46</v>
       </c>
@@ -12164,7 +12159,7 @@
       </c>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="40" t="s">
         <v>46</v>
       </c>
@@ -12201,7 +12196,7 @@
       </c>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="40" t="s">
         <v>46</v>
       </c>
@@ -12238,7 +12233,7 @@
       </c>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="40" t="s">
         <v>46</v>
       </c>
@@ -12275,7 +12270,7 @@
       </c>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="s">
         <v>46</v>
       </c>
@@ -12312,7 +12307,7 @@
       </c>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="40" t="s">
         <v>46</v>
       </c>
@@ -12349,7 +12344,7 @@
       </c>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="40" t="s">
         <v>46</v>
       </c>
@@ -12386,7 +12381,7 @@
       </c>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="40" t="s">
         <v>46</v>
       </c>
@@ -12423,7 +12418,7 @@
       </c>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="40" t="s">
         <v>46</v>
       </c>
@@ -12460,7 +12455,7 @@
       </c>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="40" t="s">
         <v>46</v>
       </c>
@@ -12497,7 +12492,7 @@
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="40" t="s">
         <v>46</v>
       </c>
@@ -12534,7 +12529,7 @@
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="40" t="s">
         <v>46</v>
       </c>
@@ -12571,7 +12566,7 @@
       </c>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="40" t="s">
         <v>46</v>
       </c>
@@ -12608,7 +12603,7 @@
       </c>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="40" t="s">
         <v>46</v>
       </c>
@@ -12645,7 +12640,7 @@
       </c>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="40" t="s">
         <v>46</v>
       </c>
@@ -12682,7 +12677,7 @@
       </c>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="40" t="s">
         <v>46</v>
       </c>
@@ -12719,7 +12714,7 @@
       </c>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="40" t="s">
         <v>46</v>
       </c>
@@ -12756,7 +12751,7 @@
       </c>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="40" t="s">
         <v>46</v>
       </c>
@@ -12793,7 +12788,7 @@
       </c>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="40" t="s">
         <v>46</v>
       </c>
@@ -12830,7 +12825,7 @@
       </c>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="40" t="s">
         <v>46</v>
       </c>
@@ -12867,7 +12862,7 @@
       </c>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="40" t="s">
         <v>46</v>
       </c>
@@ -12904,7 +12899,7 @@
       </c>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="40" t="s">
         <v>46</v>
       </c>
@@ -12941,7 +12936,7 @@
       </c>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="40" t="s">
         <v>46</v>
       </c>
@@ -12978,7 +12973,7 @@
       </c>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="40" t="s">
         <v>47</v>
       </c>
@@ -13015,7 +13010,7 @@
       </c>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="40" t="s">
         <v>47</v>
       </c>
@@ -13052,7 +13047,7 @@
       </c>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="40" t="s">
         <v>47</v>
       </c>
@@ -13089,7 +13084,7 @@
       </c>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="40" t="s">
         <v>47</v>
       </c>
@@ -13126,7 +13121,7 @@
       </c>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
         <v>47</v>
       </c>
@@ -13163,7 +13158,7 @@
       </c>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
         <v>47</v>
       </c>
@@ -13200,7 +13195,7 @@
       </c>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="40" t="s">
         <v>47</v>
       </c>
@@ -13237,7 +13232,7 @@
       </c>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="40" t="s">
         <v>47</v>
       </c>
@@ -13274,7 +13269,7 @@
       </c>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="40" t="s">
         <v>47</v>
       </c>
@@ -13311,7 +13306,7 @@
       </c>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="40" t="s">
         <v>47</v>
       </c>
@@ -13348,7 +13343,7 @@
       </c>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="40" t="s">
         <v>47</v>
       </c>
@@ -13385,7 +13380,7 @@
       </c>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="40" t="s">
         <v>47</v>
       </c>
@@ -13422,7 +13417,7 @@
       </c>
       <c r="Q86" s="8"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="40" t="s">
         <v>47</v>
       </c>
@@ -13459,7 +13454,7 @@
       </c>
       <c r="Q87" s="8"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="40" t="s">
         <v>47</v>
       </c>
@@ -13496,7 +13491,7 @@
       </c>
       <c r="Q88" s="8"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="40" t="s">
         <v>47</v>
       </c>
@@ -13533,7 +13528,7 @@
       </c>
       <c r="Q89" s="8"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="40" t="s">
         <v>47</v>
       </c>
@@ -13570,7 +13565,7 @@
       </c>
       <c r="Q90" s="8"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="40" t="s">
         <v>47</v>
       </c>
@@ -13607,7 +13602,7 @@
       </c>
       <c r="Q91" s="8"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="40" t="s">
         <v>47</v>
       </c>
@@ -13644,7 +13639,7 @@
       </c>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="40" t="s">
         <v>47</v>
       </c>
@@ -13681,7 +13676,7 @@
       </c>
       <c r="Q93" s="8"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="40" t="s">
         <v>47</v>
       </c>
@@ -13718,7 +13713,7 @@
       </c>
       <c r="Q94" s="8"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="40" t="s">
         <v>47</v>
       </c>
@@ -13755,7 +13750,7 @@
       </c>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="40" t="s">
         <v>237</v>
       </c>
@@ -13790,7 +13785,7 @@
       </c>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="40" t="s">
         <v>237</v>
       </c>
@@ -13825,7 +13820,7 @@
       </c>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="40" t="s">
         <v>237</v>
       </c>
@@ -13860,7 +13855,7 @@
       </c>
       <c r="Q98" s="8"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="40" t="s">
         <v>237</v>
       </c>
@@ -13895,7 +13890,7 @@
       </c>
       <c r="Q99" s="8"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="40" t="s">
         <v>237</v>
       </c>
@@ -13930,7 +13925,7 @@
       </c>
       <c r="Q100" s="8"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
         <v>237</v>
       </c>
@@ -13965,7 +13960,7 @@
       </c>
       <c r="Q101" s="8"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="40" t="s">
         <v>237</v>
       </c>
@@ -14000,7 +13995,7 @@
       </c>
       <c r="Q102" s="8"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="40" t="s">
         <v>237</v>
       </c>
@@ -14035,7 +14030,7 @@
       </c>
       <c r="Q103" s="8"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="40" t="s">
         <v>237</v>
       </c>
@@ -14070,7 +14065,7 @@
       </c>
       <c r="Q104" s="8"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="40" t="s">
         <v>237</v>
       </c>
@@ -14105,7 +14100,7 @@
       </c>
       <c r="Q105" s="8"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="40" t="s">
         <v>237</v>
       </c>
@@ -14140,7 +14135,7 @@
       </c>
       <c r="Q106" s="8"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="40" t="s">
         <v>238</v>
       </c>
@@ -14175,7 +14170,7 @@
       </c>
       <c r="Q107" s="8"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="40" t="s">
         <v>238</v>
       </c>
@@ -14210,7 +14205,7 @@
       </c>
       <c r="Q108" s="8"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="40" t="s">
         <v>238</v>
       </c>
@@ -14245,7 +14240,7 @@
       </c>
       <c r="Q109" s="8"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="40" t="s">
         <v>238</v>
       </c>
@@ -14280,7 +14275,7 @@
       </c>
       <c r="Q110" s="8"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="40" t="s">
         <v>238</v>
       </c>
@@ -14315,7 +14310,7 @@
       </c>
       <c r="Q111" s="8"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="40" t="s">
         <v>238</v>
       </c>
@@ -14350,7 +14345,7 @@
       </c>
       <c r="Q112" s="8"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="40" t="s">
         <v>239</v>
       </c>
@@ -14385,7 +14380,7 @@
       </c>
       <c r="Q113" s="8"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="40" t="s">
         <v>239</v>
       </c>
@@ -14420,7 +14415,7 @@
       </c>
       <c r="Q114" s="8"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="40" t="s">
         <v>239</v>
       </c>
@@ -14455,7 +14450,7 @@
       </c>
       <c r="Q115" s="8"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="40" t="s">
         <v>239</v>
       </c>
@@ -14490,7 +14485,7 @@
       </c>
       <c r="Q116" s="8"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="40" t="s">
         <v>240</v>
       </c>
@@ -14525,7 +14520,7 @@
       </c>
       <c r="Q117" s="8"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>301</v>
       </c>
@@ -14562,7 +14557,7 @@
       </c>
       <c r="Q118" s="8"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>301</v>
       </c>
@@ -14599,7 +14594,7 @@
       </c>
       <c r="Q119" s="8"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>301</v>
       </c>
@@ -14636,7 +14631,7 @@
       </c>
       <c r="Q120" s="8"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>301</v>
       </c>
@@ -14673,7 +14668,7 @@
       </c>
       <c r="Q121" s="8"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>301</v>
       </c>
@@ -14710,7 +14705,7 @@
       </c>
       <c r="Q122" s="8"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>301</v>
       </c>
@@ -14747,7 +14742,7 @@
       </c>
       <c r="Q123" s="8"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>301</v>
       </c>
@@ -14784,7 +14779,7 @@
       </c>
       <c r="Q124" s="8"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>301</v>
       </c>
@@ -14821,7 +14816,7 @@
       </c>
       <c r="Q125" s="8"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>301</v>
       </c>
@@ -14858,7 +14853,7 @@
       </c>
       <c r="Q126" s="8"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>301</v>
       </c>
@@ -14895,7 +14890,7 @@
       </c>
       <c r="Q127" s="8"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>301</v>
       </c>
@@ -14932,7 +14927,7 @@
       </c>
       <c r="Q128" s="8"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>301</v>
       </c>
@@ -14969,7 +14964,7 @@
       </c>
       <c r="Q129" s="8"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>301</v>
       </c>
@@ -15006,7 +15001,7 @@
       </c>
       <c r="Q130" s="8"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>301</v>
       </c>
@@ -15043,7 +15038,7 @@
       </c>
       <c r="Q131" s="8"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>301</v>
       </c>
@@ -15080,7 +15075,7 @@
       </c>
       <c r="Q132" s="8"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>301</v>
       </c>
@@ -15117,7 +15112,7 @@
       </c>
       <c r="Q133" s="8"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>301</v>
       </c>
@@ -15154,7 +15149,7 @@
       </c>
       <c r="Q134" s="8"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>301</v>
       </c>
@@ -15191,7 +15186,7 @@
       </c>
       <c r="Q135" s="8"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>301</v>
       </c>
@@ -15228,7 +15223,7 @@
       </c>
       <c r="Q136" s="8"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>301</v>
       </c>
@@ -15265,7 +15260,7 @@
       </c>
       <c r="Q137" s="8"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>302</v>
       </c>
@@ -15302,7 +15297,7 @@
       </c>
       <c r="Q138" s="8"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>302</v>
       </c>
@@ -15339,7 +15334,7 @@
       </c>
       <c r="Q139" s="8"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>302</v>
       </c>
@@ -15376,7 +15371,7 @@
       </c>
       <c r="Q140" s="8"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>302</v>
       </c>
@@ -15413,7 +15408,7 @@
       </c>
       <c r="Q141" s="8"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>302</v>
       </c>
@@ -15450,7 +15445,7 @@
       </c>
       <c r="Q142" s="8"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>302</v>
       </c>
@@ -15487,7 +15482,7 @@
       </c>
       <c r="Q143" s="8"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>302</v>
       </c>
@@ -15524,7 +15519,7 @@
       </c>
       <c r="Q144" s="8"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>302</v>
       </c>
@@ -15561,7 +15556,7 @@
       </c>
       <c r="Q145" s="8"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>302</v>
       </c>
@@ -15598,7 +15593,7 @@
       </c>
       <c r="Q146" s="8"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>302</v>
       </c>
@@ -15635,7 +15630,7 @@
       </c>
       <c r="Q147" s="8"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>302</v>
       </c>
@@ -15672,7 +15667,7 @@
       </c>
       <c r="Q148" s="8"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>302</v>
       </c>
@@ -15709,7 +15704,7 @@
       </c>
       <c r="Q149" s="8"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>302</v>
       </c>
@@ -15746,7 +15741,7 @@
       </c>
       <c r="Q150" s="8"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>302</v>
       </c>
@@ -15783,7 +15778,7 @@
       </c>
       <c r="Q151" s="8"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>303</v>
       </c>
@@ -15820,7 +15815,7 @@
       </c>
       <c r="Q152" s="8"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>303</v>
       </c>
@@ -15857,7 +15852,7 @@
       </c>
       <c r="Q153" s="10"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>303</v>
       </c>
@@ -15894,7 +15889,7 @@
       </c>
       <c r="Q154" s="10"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>303</v>
       </c>
@@ -15931,7 +15926,7 @@
       </c>
       <c r="Q155" s="10"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>303</v>
       </c>
@@ -15968,7 +15963,7 @@
       </c>
       <c r="Q156" s="10"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>303</v>
       </c>
@@ -16005,7 +16000,7 @@
       </c>
       <c r="Q157" s="10"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>303</v>
       </c>
@@ -16042,7 +16037,7 @@
       </c>
       <c r="Q158" s="10"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>303</v>
       </c>
@@ -16079,7 +16074,7 @@
       </c>
       <c r="Q159" s="10"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>303</v>
       </c>
@@ -16116,7 +16111,7 @@
       </c>
       <c r="Q160" s="10"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>303</v>
       </c>
@@ -16153,7 +16148,7 @@
       </c>
       <c r="Q161" s="10"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>303</v>
       </c>
@@ -16190,7 +16185,7 @@
       </c>
       <c r="Q162" s="10"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>303</v>
       </c>
@@ -16227,7 +16222,7 @@
       </c>
       <c r="Q163" s="10"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>303</v>
       </c>
@@ -16264,7 +16259,7 @@
       </c>
       <c r="Q164" s="10"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>303</v>
       </c>
@@ -16301,7 +16296,7 @@
       </c>
       <c r="Q165" s="10"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>303</v>
       </c>
@@ -16338,7 +16333,7 @@
       </c>
       <c r="Q166" s="10"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>303</v>
       </c>
@@ -16375,7 +16370,7 @@
       </c>
       <c r="Q167" s="10"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>303</v>
       </c>
@@ -16412,7 +16407,7 @@
       </c>
       <c r="Q168" s="10"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>303</v>
       </c>
@@ -16449,7 +16444,7 @@
       </c>
       <c r="Q169" s="10"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>303</v>
       </c>
@@ -16486,7 +16481,7 @@
       </c>
       <c r="Q170" s="10"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>303</v>
       </c>
@@ -16523,7 +16518,7 @@
       </c>
       <c r="Q171" s="10"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="40" t="s">
         <v>400</v>
       </c>
@@ -16564,7 +16559,7 @@
       </c>
       <c r="Q172" s="10"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="40" t="s">
         <v>400</v>
       </c>
@@ -16605,7 +16600,7 @@
       </c>
       <c r="Q173" s="10"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="40" t="s">
         <v>401</v>
       </c>
@@ -16646,7 +16641,7 @@
       </c>
       <c r="Q174" s="10"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="40" t="s">
         <v>401</v>
       </c>
@@ -16685,7 +16680,7 @@
       </c>
       <c r="Q175" s="10"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="40" t="s">
         <v>401</v>
       </c>
@@ -16724,7 +16719,7 @@
       </c>
       <c r="Q176" s="10"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="40" t="s">
         <v>401</v>
       </c>
@@ -16763,7 +16758,7 @@
       </c>
       <c r="Q177" s="10"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="40" t="s">
         <v>401</v>
       </c>
@@ -16802,7 +16797,7 @@
       </c>
       <c r="Q178" s="10"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="40" t="s">
         <v>401</v>
       </c>
@@ -16841,7 +16836,7 @@
       </c>
       <c r="Q179" s="10"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="40" t="s">
         <v>402</v>
       </c>
@@ -16880,7 +16875,7 @@
       </c>
       <c r="Q180" s="10"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" s="40" t="s">
         <v>402</v>
       </c>
@@ -16919,7 +16914,7 @@
       </c>
       <c r="Q181" s="10"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" s="40" t="s">
         <v>402</v>
       </c>
@@ -16958,7 +16953,7 @@
       </c>
       <c r="Q182" s="10"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" s="40" t="s">
         <v>402</v>
       </c>
@@ -16997,7 +16992,7 @@
       </c>
       <c r="Q183" s="10"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" s="40" t="s">
         <v>402</v>
       </c>
@@ -17036,7 +17031,7 @@
       </c>
       <c r="Q184" s="10"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" s="40" t="s">
         <v>402</v>
       </c>
@@ -17075,7 +17070,7 @@
       </c>
       <c r="Q185" s="10"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="40" t="s">
         <v>402</v>
       </c>
@@ -17114,7 +17109,7 @@
       </c>
       <c r="Q186" s="10"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="40" t="s">
         <v>402</v>
       </c>
@@ -17153,7 +17148,7 @@
       </c>
       <c r="Q187" s="10"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="40" t="s">
         <v>402</v>
       </c>
@@ -17192,7 +17187,7 @@
       </c>
       <c r="Q188" s="10"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="40" t="s">
         <v>402</v>
       </c>
@@ -17231,7 +17226,7 @@
       </c>
       <c r="Q189" s="10"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="40" t="s">
         <v>402</v>
       </c>
@@ -17270,7 +17265,7 @@
       </c>
       <c r="Q190" s="10"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="40" t="s">
         <v>402</v>
       </c>
@@ -17309,7 +17304,7 @@
       </c>
       <c r="Q191" s="10"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="40" t="s">
         <v>402</v>
       </c>
@@ -17348,7 +17343,7 @@
       </c>
       <c r="Q192" s="10"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" s="40" t="s">
         <v>402</v>
       </c>
@@ -17387,7 +17382,7 @@
       </c>
       <c r="Q193" s="10"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="40" t="s">
         <v>403</v>
       </c>
@@ -17426,7 +17421,7 @@
       </c>
       <c r="Q194" s="10"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="40" t="s">
         <v>403</v>
       </c>
@@ -17465,7 +17460,7 @@
       </c>
       <c r="Q195" s="10"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="40" t="s">
         <v>403</v>
       </c>
@@ -17504,7 +17499,7 @@
       </c>
       <c r="Q196" s="10"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="40" t="s">
         <v>403</v>
       </c>
@@ -17543,7 +17538,7 @@
       </c>
       <c r="Q197" s="10"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="40" t="s">
         <v>403</v>
       </c>
@@ -17582,7 +17577,7 @@
       </c>
       <c r="Q198" s="10"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="40" t="s">
         <v>403</v>
       </c>
@@ -17621,7 +17616,7 @@
       </c>
       <c r="Q199" s="10"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="40" t="s">
         <v>403</v>
       </c>
@@ -17660,7 +17655,7 @@
       </c>
       <c r="Q200" s="10"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="40" t="s">
         <v>403</v>
       </c>
@@ -17699,7 +17694,7 @@
       </c>
       <c r="Q201" s="10"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>487</v>
       </c>
@@ -17738,7 +17733,7 @@
       </c>
       <c r="Q202" s="10"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>487</v>
       </c>
@@ -17777,7 +17772,7 @@
       </c>
       <c r="Q203" s="10"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>487</v>
       </c>
@@ -17816,7 +17811,7 @@
       </c>
       <c r="Q204" s="10"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>487</v>
       </c>
@@ -17857,7 +17852,7 @@
       </c>
       <c r="Q205" s="10"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>487</v>
       </c>
@@ -17896,7 +17891,7 @@
       </c>
       <c r="Q206" s="10"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>487</v>
       </c>
@@ -17935,7 +17930,7 @@
       </c>
       <c r="Q207" s="10"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>488</v>
       </c>
@@ -17976,7 +17971,7 @@
       </c>
       <c r="Q208" s="10"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>488</v>
       </c>
@@ -18017,7 +18012,7 @@
       </c>
       <c r="Q209" s="10"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>488</v>
       </c>
@@ -18058,7 +18053,7 @@
       </c>
       <c r="Q210" s="10"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>489</v>
       </c>
@@ -18097,7 +18092,7 @@
       </c>
       <c r="Q211" s="10"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>490</v>
       </c>
@@ -18136,7 +18131,7 @@
       </c>
       <c r="Q212" s="10"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>490</v>
       </c>
@@ -18177,7 +18172,7 @@
       </c>
       <c r="Q213" s="10"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>490</v>
       </c>
@@ -18216,7 +18211,7 @@
       </c>
       <c r="Q214" s="10"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>490</v>
       </c>
@@ -18255,7 +18250,7 @@
       </c>
       <c r="Q215" s="10"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>491</v>
       </c>
@@ -18294,7 +18289,7 @@
       </c>
       <c r="Q216" s="10"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>491</v>
       </c>
@@ -18335,7 +18330,7 @@
       </c>
       <c r="Q217" s="10"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>491</v>
       </c>
@@ -18376,7 +18371,7 @@
       </c>
       <c r="Q218" s="10"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>491</v>
       </c>
@@ -18417,7 +18412,7 @@
       </c>
       <c r="Q219" s="10"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>491</v>
       </c>
@@ -18458,7 +18453,7 @@
       </c>
       <c r="Q220" s="10"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>491</v>
       </c>
@@ -18497,7 +18492,7 @@
       </c>
       <c r="Q221" s="10"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>491</v>
       </c>
@@ -18536,7 +18531,7 @@
       </c>
       <c r="Q222" s="10"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>491</v>
       </c>
@@ -18577,7 +18572,7 @@
       </c>
       <c r="Q223" s="10"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>492</v>
       </c>
@@ -18616,7 +18611,7 @@
       </c>
       <c r="Q224" s="10"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>492</v>
       </c>
@@ -18655,7 +18650,7 @@
       </c>
       <c r="Q225" s="10"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>493</v>
       </c>
@@ -18694,7 +18689,7 @@
       </c>
       <c r="Q226" s="10"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>493</v>
       </c>
@@ -18733,7 +18728,7 @@
       </c>
       <c r="Q227" s="10"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>493</v>
       </c>
@@ -18772,7 +18767,7 @@
       </c>
       <c r="Q228" s="10"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>493</v>
       </c>
@@ -18813,7 +18808,7 @@
       </c>
       <c r="Q229" s="10"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>493</v>
       </c>
@@ -18852,7 +18847,7 @@
       </c>
       <c r="Q230" s="10"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>493</v>
       </c>
@@ -18891,7 +18886,7 @@
       </c>
       <c r="Q231" s="10"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>493</v>
       </c>
@@ -18932,7 +18927,7 @@
       </c>
       <c r="Q232" s="10"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>544</v>
       </c>
@@ -18971,7 +18966,7 @@
       </c>
       <c r="Q233" s="10"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>544</v>
       </c>
@@ -19012,7 +19007,7 @@
       </c>
       <c r="Q234" s="10"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>544</v>
       </c>
@@ -19053,7 +19048,7 @@
       </c>
       <c r="Q235" s="10"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>544</v>
       </c>
@@ -19094,7 +19089,7 @@
       </c>
       <c r="Q236" s="10"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>544</v>
       </c>
@@ -19135,7 +19130,7 @@
       </c>
       <c r="Q237" s="10"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>544</v>
       </c>
@@ -19176,7 +19171,7 @@
       </c>
       <c r="Q238" s="10"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>545</v>
       </c>
@@ -19217,7 +19212,7 @@
       </c>
       <c r="Q239" s="10"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>545</v>
       </c>
@@ -19258,7 +19253,7 @@
       </c>
       <c r="Q240" s="10"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>545</v>
       </c>
@@ -19299,7 +19294,7 @@
       </c>
       <c r="Q241" s="10"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>545</v>
       </c>
@@ -19340,7 +19335,7 @@
       </c>
       <c r="Q242" s="10"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>545</v>
       </c>
@@ -19381,7 +19376,7 @@
       </c>
       <c r="Q243" s="10"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>545</v>
       </c>
@@ -19422,7 +19417,7 @@
       </c>
       <c r="Q244" s="10"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>545</v>
       </c>
@@ -19463,7 +19458,7 @@
       </c>
       <c r="Q245" s="10"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>545</v>
       </c>
@@ -19504,7 +19499,7 @@
       </c>
       <c r="Q246" s="10"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>545</v>
       </c>
@@ -19545,7 +19540,7 @@
       </c>
       <c r="Q247" s="10"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>545</v>
       </c>
@@ -19586,7 +19581,7 @@
       </c>
       <c r="Q248" s="10"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>546</v>
       </c>
@@ -19627,7 +19622,7 @@
       </c>
       <c r="Q249" s="10"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>546</v>
       </c>
@@ -19668,7 +19663,7 @@
       </c>
       <c r="Q250" s="10"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>546</v>
       </c>
@@ -19709,7 +19704,7 @@
       </c>
       <c r="Q251" s="10"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>546</v>
       </c>
@@ -19750,7 +19745,7 @@
       </c>
       <c r="Q252" s="10"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>546</v>
       </c>
@@ -19791,7 +19786,7 @@
       </c>
       <c r="Q253" s="10"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>546</v>
       </c>
@@ -19832,7 +19827,7 @@
       </c>
       <c r="Q254" s="10"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>546</v>
       </c>
@@ -19873,7 +19868,7 @@
       </c>
       <c r="Q255" s="10"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>546</v>
       </c>
@@ -19914,7 +19909,7 @@
       </c>
       <c r="Q256" s="10"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>547</v>
       </c>
@@ -19955,7 +19950,7 @@
       </c>
       <c r="Q257" s="10"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>547</v>
       </c>
@@ -19996,7 +19991,7 @@
       </c>
       <c r="Q258" s="10"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>547</v>
       </c>
@@ -20037,7 +20032,7 @@
       </c>
       <c r="Q259" s="10"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>547</v>
       </c>
@@ -20078,7 +20073,7 @@
       </c>
       <c r="Q260" s="10"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>547</v>
       </c>
@@ -20119,7 +20114,7 @@
       </c>
       <c r="Q261" s="10"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>547</v>
       </c>
@@ -20160,7 +20155,7 @@
       </c>
       <c r="Q262" s="10"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>547</v>
       </c>
@@ -20201,7 +20196,7 @@
       </c>
       <c r="Q263" s="10"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>547</v>
       </c>
@@ -20242,7 +20237,7 @@
       </c>
       <c r="Q264" s="10"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>547</v>
       </c>
@@ -20283,7 +20278,7 @@
       </c>
       <c r="Q265" s="10"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>548</v>
       </c>
@@ -20324,7 +20319,7 @@
       </c>
       <c r="Q266" s="10"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>548</v>
       </c>
@@ -20365,7 +20360,7 @@
       </c>
       <c r="Q267" s="10"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>548</v>
       </c>
@@ -20406,7 +20401,7 @@
       </c>
       <c r="Q268" s="10"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>548</v>
       </c>
@@ -20447,7 +20442,7 @@
       </c>
       <c r="Q269" s="10"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>548</v>
       </c>
@@ -20488,7 +20483,7 @@
       </c>
       <c r="Q270" s="10"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>548</v>
       </c>
@@ -20529,7 +20524,7 @@
       </c>
       <c r="Q271" s="10"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>548</v>
       </c>
@@ -20570,7 +20565,7 @@
       </c>
       <c r="Q272" s="10"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>548</v>
       </c>
@@ -20611,7 +20606,7 @@
       </c>
       <c r="Q273" s="10"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>548</v>
       </c>
@@ -20652,7 +20647,7 @@
       </c>
       <c r="Q274" s="10"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>549</v>
       </c>
@@ -20693,7 +20688,7 @@
       </c>
       <c r="Q275" s="10"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>549</v>
       </c>
@@ -20734,7 +20729,7 @@
       </c>
       <c r="Q276" s="10"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>549</v>
       </c>
@@ -20775,7 +20770,7 @@
       </c>
       <c r="Q277" s="10"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>549</v>
       </c>
@@ -20816,7 +20811,7 @@
       </c>
       <c r="Q278" s="10"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>549</v>
       </c>
@@ -20857,7 +20852,7 @@
       </c>
       <c r="Q279" s="10"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>549</v>
       </c>
@@ -20898,7 +20893,7 @@
       </c>
       <c r="Q280" s="10"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>549</v>
       </c>
@@ -20939,7 +20934,7 @@
       </c>
       <c r="Q281" s="10"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>549</v>
       </c>
@@ -20980,7 +20975,7 @@
       </c>
       <c r="Q282" s="10"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>549</v>
       </c>
@@ -21021,7 +21016,7 @@
       </c>
       <c r="Q283" s="10"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>549</v>
       </c>
@@ -21062,7 +21057,7 @@
       </c>
       <c r="Q284" s="10"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" s="40" t="s">
         <v>655</v>
       </c>
@@ -21103,7 +21098,7 @@
       </c>
       <c r="Q285" s="10"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286" s="40" t="s">
         <v>655</v>
       </c>
@@ -21144,7 +21139,7 @@
       </c>
       <c r="Q286" s="10"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" s="40" t="s">
         <v>655</v>
       </c>
@@ -21185,7 +21180,7 @@
       </c>
       <c r="Q287" s="10"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" s="40" t="s">
         <v>655</v>
       </c>
@@ -21226,7 +21221,7 @@
       </c>
       <c r="Q288" s="10"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289" s="40" t="s">
         <v>655</v>
       </c>
@@ -21267,7 +21262,7 @@
       </c>
       <c r="Q289" s="10"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" s="40" t="s">
         <v>655</v>
       </c>
@@ -21308,7 +21303,7 @@
       </c>
       <c r="Q290" s="10"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" s="40" t="s">
         <v>655</v>
       </c>
@@ -21347,7 +21342,7 @@
       </c>
       <c r="Q291" s="10"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292" s="40" t="s">
         <v>655</v>
       </c>
@@ -21386,7 +21381,7 @@
       </c>
       <c r="Q292" s="10"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293" s="40" t="s">
         <v>656</v>
       </c>
@@ -21427,7 +21422,7 @@
       </c>
       <c r="Q293" s="10"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" s="40" t="s">
         <v>656</v>
       </c>
@@ -21468,7 +21463,7 @@
       </c>
       <c r="Q294" s="10"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" s="40" t="s">
         <v>656</v>
       </c>
@@ -21509,7 +21504,7 @@
       </c>
       <c r="Q295" s="10"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296" s="40" t="s">
         <v>656</v>
       </c>
@@ -21548,7 +21543,7 @@
       </c>
       <c r="Q296" s="10"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297" s="40" t="s">
         <v>656</v>
       </c>
@@ -21587,7 +21582,7 @@
       </c>
       <c r="Q297" s="10"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298" s="40" t="s">
         <v>656</v>
       </c>
@@ -21628,7 +21623,7 @@
       </c>
       <c r="Q298" s="10"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299" s="40" t="s">
         <v>656</v>
       </c>
@@ -21669,7 +21664,7 @@
       </c>
       <c r="Q299" s="10"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300" s="40" t="s">
         <v>657</v>
       </c>
@@ -21708,7 +21703,7 @@
       </c>
       <c r="Q300" s="10"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301" s="40" t="s">
         <v>657</v>
       </c>
@@ -21747,7 +21742,7 @@
       </c>
       <c r="Q301" s="10"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A302" s="40" t="s">
         <v>657</v>
       </c>
@@ -21786,7 +21781,7 @@
       </c>
       <c r="Q302" s="10"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A303" s="40" t="s">
         <v>657</v>
       </c>
@@ -21827,7 +21822,7 @@
       </c>
       <c r="Q303" s="10"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A304" s="40" t="s">
         <v>657</v>
       </c>
@@ -21868,7 +21863,7 @@
       </c>
       <c r="Q304" s="10"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A305" s="40" t="s">
         <v>657</v>
       </c>
@@ -21907,7 +21902,7 @@
       </c>
       <c r="Q305" s="10"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A306" s="40" t="s">
         <v>657</v>
       </c>
@@ -21948,7 +21943,7 @@
       </c>
       <c r="Q306" s="10"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A307" s="40" t="s">
         <v>658</v>
       </c>
@@ -21989,7 +21984,7 @@
       </c>
       <c r="Q307" s="10"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A308" s="40" t="s">
         <v>658</v>
       </c>
@@ -22028,7 +22023,7 @@
       </c>
       <c r="Q308" s="10"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A309" s="40" t="s">
         <v>658</v>
       </c>
@@ -22067,7 +22062,7 @@
       </c>
       <c r="Q309" s="10"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A310" s="40" t="s">
         <v>658</v>
       </c>
@@ -22108,7 +22103,7 @@
       </c>
       <c r="Q310" s="10"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A311" s="40" t="s">
         <v>658</v>
       </c>
@@ -22147,7 +22142,7 @@
       </c>
       <c r="Q311" s="10"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A312" s="40" t="s">
         <v>658</v>
       </c>
@@ -22188,7 +22183,7 @@
       </c>
       <c r="Q312" s="10"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A313" s="40" t="s">
         <v>658</v>
       </c>
@@ -22227,7 +22222,7 @@
       </c>
       <c r="Q313" s="10"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A314" s="40" t="s">
         <v>658</v>
       </c>
@@ -22268,7 +22263,7 @@
       </c>
       <c r="Q314" s="10"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A315" s="40" t="s">
         <v>659</v>
       </c>
@@ -22307,7 +22302,7 @@
       </c>
       <c r="Q315" s="10"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316" s="40" t="s">
         <v>659</v>
       </c>
@@ -22346,7 +22341,7 @@
       </c>
       <c r="Q316" s="10"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A317" s="40" t="s">
         <v>659</v>
       </c>
@@ -22385,7 +22380,7 @@
       </c>
       <c r="Q317" s="10"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A318" s="40" t="s">
         <v>659</v>
       </c>
@@ -22426,7 +22421,7 @@
       </c>
       <c r="Q318" s="10"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A319" s="40" t="s">
         <v>659</v>
       </c>
@@ -22467,7 +22462,7 @@
       </c>
       <c r="Q319" s="10"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A320" s="40" t="s">
         <v>659</v>
       </c>
@@ -22506,7 +22501,7 @@
       </c>
       <c r="Q320" s="10"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321" s="40" t="s">
         <v>659</v>
       </c>
@@ -22547,7 +22542,7 @@
       </c>
       <c r="Q321" s="10"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322" s="40" t="s">
         <v>659</v>
       </c>
@@ -22588,7 +22583,7 @@
       </c>
       <c r="Q322" s="10"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323" s="40" t="s">
         <v>660</v>
       </c>
@@ -22627,7 +22622,7 @@
       </c>
       <c r="Q323" s="10"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324" s="40" t="s">
         <v>660</v>
       </c>
@@ -22666,7 +22661,7 @@
       </c>
       <c r="Q324" s="10"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325" s="40" t="s">
         <v>660</v>
       </c>
@@ -22707,7 +22702,7 @@
       </c>
       <c r="Q325" s="10"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326" s="40" t="s">
         <v>660</v>
       </c>
@@ -22748,7 +22743,7 @@
       </c>
       <c r="Q326" s="10"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327" s="40" t="s">
         <v>660</v>
       </c>
@@ -22787,7 +22782,7 @@
       </c>
       <c r="Q327" s="10"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328" s="40" t="s">
         <v>660</v>
       </c>
@@ -22826,7 +22821,7 @@
       </c>
       <c r="Q328" s="10"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329" s="40" t="s">
         <v>660</v>
       </c>
@@ -22867,7 +22862,7 @@
       </c>
       <c r="Q329" s="10"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330" s="40" t="s">
         <v>661</v>
       </c>
@@ -22906,7 +22901,7 @@
       </c>
       <c r="Q330" s="10"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331" s="40" t="s">
         <v>661</v>
       </c>
@@ -22945,7 +22940,7 @@
       </c>
       <c r="Q331" s="10"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332" s="40" t="s">
         <v>661</v>
       </c>
@@ -22986,7 +22981,7 @@
       </c>
       <c r="Q332" s="10"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333" s="40" t="s">
         <v>661</v>
       </c>
@@ -23027,7 +23022,7 @@
       </c>
       <c r="Q333" s="10"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334" s="40" t="s">
         <v>661</v>
       </c>
@@ -23066,7 +23061,7 @@
       </c>
       <c r="Q334" s="10"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335" s="40" t="s">
         <v>661</v>
       </c>
@@ -23105,7 +23100,7 @@
       </c>
       <c r="Q335" s="10"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336" s="40" t="s">
         <v>661</v>
       </c>
@@ -23144,7 +23139,7 @@
       </c>
       <c r="Q336" s="10"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337" s="40" t="s">
         <v>661</v>
       </c>
@@ -23185,7 +23180,7 @@
       </c>
       <c r="Q337" s="10"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338" s="40" t="s">
         <v>661</v>
       </c>
@@ -23226,7 +23221,7 @@
       </c>
       <c r="Q338" s="10"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339" s="40" t="s">
         <v>662</v>
       </c>
@@ -23267,7 +23262,7 @@
       </c>
       <c r="Q339" s="10"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340" s="40" t="s">
         <v>662</v>
       </c>
@@ -23306,7 +23301,7 @@
       </c>
       <c r="Q340" s="10"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341" s="40" t="s">
         <v>662</v>
       </c>
@@ -23347,7 +23342,7 @@
       </c>
       <c r="Q341" s="10"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342" s="40" t="s">
         <v>662</v>
       </c>
@@ -23388,7 +23383,7 @@
       </c>
       <c r="Q342" s="10"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343" s="40" t="s">
         <v>662</v>
       </c>
@@ -23429,7 +23424,7 @@
       </c>
       <c r="Q343" s="10"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344" s="40" t="s">
         <v>662</v>
       </c>
@@ -23470,7 +23465,7 @@
       </c>
       <c r="Q344" s="10"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345" s="40" t="s">
         <v>662</v>
       </c>
@@ -23509,7 +23504,7 @@
       </c>
       <c r="Q345" s="10"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346" s="40" t="s">
         <v>662</v>
       </c>
@@ -23550,7 +23545,7 @@
       </c>
       <c r="Q346" s="10"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347" s="40" t="s">
         <v>662</v>
       </c>
@@ -23589,7 +23584,7 @@
       </c>
       <c r="Q347" s="10"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348" s="40" t="s">
         <v>662</v>
       </c>
@@ -23630,7 +23625,7 @@
       </c>
       <c r="Q348" s="10"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349" s="40" t="s">
         <v>662</v>
       </c>
@@ -23671,7 +23666,7 @@
       </c>
       <c r="Q349" s="10"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350" s="40" t="s">
         <v>663</v>
       </c>
@@ -23710,7 +23705,7 @@
       </c>
       <c r="Q350" s="10"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351" s="40" t="s">
         <v>663</v>
       </c>
@@ -23749,7 +23744,7 @@
       </c>
       <c r="Q351" s="6"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352" s="40" t="s">
         <v>663</v>
       </c>
@@ -23790,7 +23785,7 @@
       </c>
       <c r="Q352" s="6"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A353" s="40" t="s">
         <v>663</v>
       </c>
@@ -23831,7 +23826,7 @@
       </c>
       <c r="Q353" s="6"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A354" s="40" t="s">
         <v>663</v>
       </c>
@@ -23872,7 +23867,7 @@
       </c>
       <c r="Q354" s="6"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A355" s="40" t="s">
         <v>663</v>
       </c>
@@ -23913,7 +23908,7 @@
       </c>
       <c r="Q355" s="6"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A356" s="40" t="s">
         <v>663</v>
       </c>
@@ -23954,7 +23949,7 @@
       </c>
       <c r="Q356" s="6"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A357" s="40" t="s">
         <v>663</v>
       </c>
@@ -23993,7 +23988,7 @@
       </c>
       <c r="Q357" s="6"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A358" s="40" t="s">
         <v>663</v>
       </c>
@@ -24034,7 +24029,7 @@
       </c>
       <c r="Q358" s="6"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A359" s="40" t="s">
         <v>664</v>
       </c>
@@ -24073,7 +24068,7 @@
       </c>
       <c r="Q359" s="6"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A360" s="40" t="s">
         <v>664</v>
       </c>
@@ -24114,7 +24109,7 @@
       </c>
       <c r="Q360" s="6"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A361" s="40" t="s">
         <v>664</v>
       </c>
@@ -24153,7 +24148,7 @@
       </c>
       <c r="Q361" s="6"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A362" s="40" t="s">
         <v>664</v>
       </c>
@@ -24194,7 +24189,7 @@
       </c>
       <c r="Q362" s="6"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A363" s="40" t="s">
         <v>664</v>
       </c>
@@ -24233,7 +24228,7 @@
       </c>
       <c r="Q363" s="6"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A364" s="40" t="s">
         <v>664</v>
       </c>
@@ -24274,7 +24269,7 @@
       </c>
       <c r="Q364" s="6"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A365" s="40" t="s">
         <v>664</v>
       </c>
@@ -24313,7 +24308,7 @@
       </c>
       <c r="Q365" s="6"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A366" s="40" t="s">
         <v>664</v>
       </c>
@@ -24352,7 +24347,7 @@
       </c>
       <c r="Q366" s="6"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A367" s="40" t="s">
         <v>665</v>
       </c>
@@ -24391,7 +24386,7 @@
       </c>
       <c r="Q367" s="6"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A368" s="40" t="s">
         <v>665</v>
       </c>
@@ -24430,7 +24425,7 @@
       </c>
       <c r="Q368" s="6"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A369" s="40" t="s">
         <v>665</v>
       </c>
@@ -24471,7 +24466,7 @@
       </c>
       <c r="Q369" s="6"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A370" s="40" t="s">
         <v>665</v>
       </c>
@@ -24512,7 +24507,7 @@
       </c>
       <c r="Q370" s="6"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A371" s="40" t="s">
         <v>665</v>
       </c>
@@ -24553,7 +24548,7 @@
       </c>
       <c r="Q371" s="6"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A372" s="40" t="s">
         <v>665</v>
       </c>
@@ -24594,7 +24589,7 @@
       </c>
       <c r="Q372" s="6"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A373" s="40" t="s">
         <v>665</v>
       </c>
@@ -24633,7 +24628,7 @@
       </c>
       <c r="Q373" s="6"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A374" s="40" t="s">
         <v>665</v>
       </c>
@@ -24674,7 +24669,7 @@
       </c>
       <c r="Q374" s="6"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A375" s="40" t="s">
         <v>665</v>
       </c>
@@ -24715,7 +24710,7 @@
       </c>
       <c r="Q375" s="6"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A376" s="40" t="s">
         <v>665</v>
       </c>
@@ -24756,7 +24751,7 @@
       </c>
       <c r="Q376" s="6"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A377" s="40" t="s">
         <v>665</v>
       </c>
@@ -24797,7 +24792,7 @@
       </c>
       <c r="Q377" s="6"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A378" s="40" t="s">
         <v>666</v>
       </c>
@@ -24838,7 +24833,7 @@
       </c>
       <c r="Q378" s="6"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A379" s="40" t="s">
         <v>666</v>
       </c>
@@ -24877,7 +24872,7 @@
       </c>
       <c r="Q379" s="6"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A380" s="40" t="s">
         <v>666</v>
       </c>
@@ -24916,7 +24911,7 @@
       </c>
       <c r="Q380" s="6"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A381" s="40" t="s">
         <v>666</v>
       </c>
@@ -24957,7 +24952,7 @@
       </c>
       <c r="Q381" s="6"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A382" s="40" t="s">
         <v>666</v>
       </c>
@@ -24996,7 +24991,7 @@
       </c>
       <c r="Q382" s="6"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A383" s="40" t="s">
         <v>666</v>
       </c>
@@ -25037,7 +25032,7 @@
       </c>
       <c r="Q383" s="6"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A384" s="40" t="s">
         <v>666</v>
       </c>
@@ -25078,7 +25073,7 @@
       </c>
       <c r="Q384" s="6"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A385" s="40" t="s">
         <v>666</v>
       </c>
@@ -25119,7 +25114,7 @@
       </c>
       <c r="Q385" s="6"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A386" s="40" t="s">
         <v>666</v>
       </c>
@@ -25160,7 +25155,7 @@
       </c>
       <c r="Q386" s="6"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A387" s="40" t="s">
         <v>666</v>
       </c>
@@ -25199,7 +25194,7 @@
       </c>
       <c r="Q387" s="6"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A388" s="40" t="s">
         <v>666</v>
       </c>
@@ -25240,7 +25235,7 @@
       </c>
       <c r="Q388" s="6"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A389" s="40" t="s">
         <v>667</v>
       </c>
@@ -25281,7 +25276,7 @@
       </c>
       <c r="Q389" s="24"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A390" s="40" t="s">
         <v>667</v>
       </c>
@@ -25320,7 +25315,7 @@
       </c>
       <c r="Q390" s="8"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A391" s="40" t="s">
         <v>667</v>
       </c>
@@ -25359,7 +25354,7 @@
       </c>
       <c r="Q391" s="8"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A392" s="40" t="s">
         <v>667</v>
       </c>
@@ -25398,7 +25393,7 @@
       </c>
       <c r="Q392" s="8"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A393" s="40" t="s">
         <v>667</v>
       </c>
@@ -25439,7 +25434,7 @@
       </c>
       <c r="Q393" s="8"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A394" s="40" t="s">
         <v>667</v>
       </c>
@@ -25480,7 +25475,7 @@
       </c>
       <c r="Q394" s="8"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A395" s="40" t="s">
         <v>667</v>
       </c>
@@ -25521,7 +25516,7 @@
       </c>
       <c r="Q395" s="8"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A396" s="40" t="s">
         <v>667</v>
       </c>
@@ -25562,7 +25557,7 @@
       </c>
       <c r="Q396" s="8"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A397" s="40" t="s">
         <v>667</v>
       </c>
@@ -25603,7 +25598,7 @@
       </c>
       <c r="Q397" s="8"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A398" s="40" t="s">
         <v>667</v>
       </c>
@@ -25644,7 +25639,7 @@
       </c>
       <c r="Q398" s="8"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A399" s="40" t="s">
         <v>667</v>
       </c>
@@ -25685,7 +25680,7 @@
       </c>
       <c r="Q399" s="8"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A400" s="40" t="s">
         <v>668</v>
       </c>
@@ -25726,7 +25721,7 @@
       </c>
       <c r="Q400" s="8"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401" s="40" t="s">
         <v>668</v>
       </c>
@@ -25765,7 +25760,7 @@
       </c>
       <c r="Q401" s="8"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A402" s="40" t="s">
         <v>668</v>
       </c>
@@ -25804,7 +25799,7 @@
       </c>
       <c r="Q402" s="8"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A403" s="40" t="s">
         <v>668</v>
       </c>
@@ -25843,7 +25838,7 @@
       </c>
       <c r="Q403" s="8"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A404" s="40" t="s">
         <v>668</v>
       </c>
@@ -25884,7 +25879,7 @@
       </c>
       <c r="Q404" s="8"/>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A405" s="40" t="s">
         <v>668</v>
       </c>
@@ -25925,7 +25920,7 @@
       </c>
       <c r="Q405" s="8"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A406" s="40" t="s">
         <v>668</v>
       </c>
@@ -25964,7 +25959,7 @@
       </c>
       <c r="Q406" s="8"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A407" s="40" t="s">
         <v>668</v>
       </c>
@@ -26005,7 +26000,7 @@
       </c>
       <c r="Q407" s="8"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A408" s="40" t="s">
         <v>668</v>
       </c>
@@ -26044,7 +26039,7 @@
       </c>
       <c r="Q408" s="8"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A409" s="40" t="s">
         <v>668</v>
       </c>
@@ -26085,7 +26080,7 @@
       </c>
       <c r="Q409" s="8"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A410" s="40" t="s">
         <v>908</v>
       </c>
@@ -26126,7 +26121,7 @@
       </c>
       <c r="Q410" s="8"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A411" s="40" t="s">
         <v>908</v>
       </c>
@@ -26167,7 +26162,7 @@
       </c>
       <c r="Q411" s="8"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A412" s="40" t="s">
         <v>908</v>
       </c>
@@ -26206,7 +26201,7 @@
       </c>
       <c r="Q412" s="8"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A413" s="40" t="s">
         <v>908</v>
       </c>
@@ -26245,7 +26240,7 @@
       </c>
       <c r="Q413" s="8"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A414" s="40" t="s">
         <v>908</v>
       </c>
@@ -26286,7 +26281,7 @@
       </c>
       <c r="Q414" s="8"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A415" s="40" t="s">
         <v>908</v>
       </c>
@@ -26327,7 +26322,7 @@
       </c>
       <c r="Q415" s="8"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A416" s="40" t="s">
         <v>909</v>
       </c>
@@ -26368,7 +26363,7 @@
       </c>
       <c r="Q416" s="8"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A417" s="40" t="s">
         <v>909</v>
       </c>
@@ -26409,7 +26404,7 @@
       </c>
       <c r="Q417" s="8"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A418" s="40" t="s">
         <v>909</v>
       </c>
@@ -26448,7 +26443,7 @@
       </c>
       <c r="Q418" s="8"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A419" s="40" t="s">
         <v>909</v>
       </c>
@@ -26487,7 +26482,7 @@
       </c>
       <c r="Q419" s="8"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A420" s="40" t="s">
         <v>909</v>
       </c>
@@ -26528,7 +26523,7 @@
       </c>
       <c r="Q420" s="8"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A421" s="40" t="s">
         <v>909</v>
       </c>
@@ -26567,7 +26562,7 @@
       </c>
       <c r="Q421" s="8"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A422" s="40" t="s">
         <v>909</v>
       </c>
@@ -26606,7 +26601,7 @@
       </c>
       <c r="Q422" s="8"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A423" s="40" t="s">
         <v>909</v>
       </c>
@@ -26645,7 +26640,7 @@
       </c>
       <c r="Q423" s="8"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A424" s="40" t="s">
         <v>909</v>
       </c>
@@ -26684,7 +26679,7 @@
       </c>
       <c r="Q424" s="66"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A425" s="40" t="s">
         <v>910</v>
       </c>
@@ -26726,7 +26721,7 @@
       <c r="Q425" s="8"/>
       <c r="R425" s="8"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A426" s="40" t="s">
         <v>910</v>
       </c>
@@ -26768,7 +26763,7 @@
       <c r="Q426" s="8"/>
       <c r="R426" s="8"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A427" s="40" t="s">
         <v>910</v>
       </c>
@@ -26808,7 +26803,7 @@
       <c r="Q427" s="8"/>
       <c r="R427" s="8"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A428" s="40" t="s">
         <v>910</v>
       </c>
@@ -26850,7 +26845,7 @@
       <c r="Q428" s="8"/>
       <c r="R428" s="8"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A429" s="40" t="s">
         <v>910</v>
       </c>
@@ -26892,7 +26887,7 @@
       <c r="Q429" s="8"/>
       <c r="R429" s="8"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A430" s="40" t="s">
         <v>910</v>
       </c>
@@ -26934,7 +26929,7 @@
       <c r="Q430" s="8"/>
       <c r="R430" s="8"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A431" s="40" t="s">
         <v>910</v>
       </c>
@@ -26976,7 +26971,7 @@
       <c r="Q431" s="8"/>
       <c r="R431" s="8"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A432" s="40" t="s">
         <v>937</v>
       </c>
@@ -27017,7 +27012,7 @@
       </c>
       <c r="Q432" s="8"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A433" s="40" t="s">
         <v>937</v>
       </c>
@@ -27058,7 +27053,7 @@
       </c>
       <c r="Q433" s="8"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A434" s="40" t="s">
         <v>937</v>
       </c>
@@ -27097,7 +27092,7 @@
       </c>
       <c r="Q434" s="8"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A435" s="40" t="s">
         <v>937</v>
       </c>
@@ -27138,7 +27133,7 @@
       </c>
       <c r="Q435" s="8"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A436" s="40" t="s">
         <v>937</v>
       </c>
@@ -27177,7 +27172,7 @@
       </c>
       <c r="Q436" s="8"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A437" s="40" t="s">
         <v>937</v>
       </c>
@@ -27218,7 +27213,7 @@
       </c>
       <c r="Q437" s="8"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A438" s="40" t="s">
         <v>937</v>
       </c>
@@ -27259,7 +27254,7 @@
       </c>
       <c r="Q438" s="8"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A439" s="40" t="s">
         <v>937</v>
       </c>
@@ -27300,7 +27295,7 @@
       </c>
       <c r="Q439" s="8"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A440" s="40" t="s">
         <v>937</v>
       </c>
@@ -27339,7 +27334,7 @@
       </c>
       <c r="Q440" s="8"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A441" s="40" t="s">
         <v>938</v>
       </c>
@@ -27380,7 +27375,7 @@
       </c>
       <c r="Q441" s="8"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A442" s="40" t="s">
         <v>938</v>
       </c>
@@ -27421,7 +27416,7 @@
       </c>
       <c r="Q442" s="8"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A443" s="40" t="s">
         <v>938</v>
       </c>
@@ -27460,7 +27455,7 @@
       </c>
       <c r="Q443" s="8"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A444" s="40" t="s">
         <v>938</v>
       </c>
@@ -27499,7 +27494,7 @@
       </c>
       <c r="Q444" s="8"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A445" s="40" t="s">
         <v>938</v>
       </c>
@@ -27538,7 +27533,7 @@
       </c>
       <c r="Q445" s="8"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A446" s="40" t="s">
         <v>939</v>
       </c>
@@ -27579,7 +27574,7 @@
       </c>
       <c r="Q446" s="8"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A447" s="40" t="s">
         <v>939</v>
       </c>
@@ -27618,7 +27613,7 @@
       </c>
       <c r="Q447" s="8"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A448" s="40" t="s">
         <v>939</v>
       </c>
@@ -27657,7 +27652,7 @@
       </c>
       <c r="Q448" s="8"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A449" s="40" t="s">
         <v>939</v>
       </c>
@@ -27696,7 +27691,7 @@
       </c>
       <c r="Q449" s="8"/>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A450" s="40" t="s">
         <v>939</v>
       </c>
@@ -27735,7 +27730,7 @@
       </c>
       <c r="Q450" s="8"/>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A451" s="40" t="s">
         <v>939</v>
       </c>
@@ -27774,7 +27769,7 @@
       </c>
       <c r="Q451" s="8"/>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A452" s="40" t="s">
         <v>939</v>
       </c>
@@ -27813,7 +27808,7 @@
       </c>
       <c r="Q452" s="8"/>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A453" s="40" t="s">
         <v>940</v>
       </c>
@@ -27854,7 +27849,7 @@
       </c>
       <c r="Q453" s="8"/>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A454" s="40" t="s">
         <v>940</v>
       </c>
@@ -27895,7 +27890,7 @@
       </c>
       <c r="Q454" s="8"/>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A455" s="40" t="s">
         <v>940</v>
       </c>
@@ -27936,7 +27931,7 @@
       </c>
       <c r="Q455" s="8"/>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A456" s="40" t="s">
         <v>940</v>
       </c>
@@ -27977,7 +27972,7 @@
       </c>
       <c r="Q456" s="8"/>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A457" s="40" t="s">
         <v>940</v>
       </c>
@@ -28016,7 +28011,7 @@
       </c>
       <c r="Q457" s="8"/>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A458" s="40" t="s">
         <v>940</v>
       </c>
@@ -28055,7 +28050,7 @@
       </c>
       <c r="Q458" s="8"/>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A459" s="40" t="s">
         <v>940</v>
       </c>
@@ -28096,7 +28091,7 @@
       </c>
       <c r="Q459" s="8"/>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A460" s="40" t="s">
         <v>940</v>
       </c>
@@ -28137,7 +28132,7 @@
       </c>
       <c r="Q460" s="8"/>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A461" s="40" t="s">
         <v>940</v>
       </c>
@@ -28178,7 +28173,7 @@
       </c>
       <c r="Q461" s="8"/>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A462" s="40" t="s">
         <v>940</v>
       </c>
@@ -28219,7 +28214,7 @@
       </c>
       <c r="Q462" s="8"/>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A463" s="40" t="s">
         <v>993</v>
       </c>
@@ -28258,7 +28253,7 @@
       </c>
       <c r="Q463" s="8"/>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A464" s="40" t="s">
         <v>993</v>
       </c>
@@ -28299,7 +28294,7 @@
       </c>
       <c r="Q464" s="8"/>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A465" s="40" t="s">
         <v>993</v>
       </c>
@@ -28338,7 +28333,7 @@
       </c>
       <c r="Q465" s="8"/>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A466" s="40" t="s">
         <v>993</v>
       </c>
@@ -28379,7 +28374,7 @@
       </c>
       <c r="Q466" s="8"/>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A467" s="40" t="s">
         <v>993</v>
       </c>
@@ -28418,7 +28413,7 @@
       </c>
       <c r="Q467" s="8"/>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A468" s="40" t="s">
         <v>993</v>
       </c>
@@ -28459,7 +28454,7 @@
       </c>
       <c r="Q468" s="8"/>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A469" s="40" t="s">
         <v>993</v>
       </c>
@@ -28500,7 +28495,7 @@
       </c>
       <c r="Q469" s="8"/>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A470" s="40" t="s">
         <v>993</v>
       </c>
@@ -28541,7 +28536,7 @@
       </c>
       <c r="Q470" s="8"/>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A471" s="40" t="s">
         <v>993</v>
       </c>
@@ -28582,7 +28577,7 @@
       </c>
       <c r="Q471" s="8"/>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A472" s="40" t="s">
         <v>993</v>
       </c>
@@ -28623,7 +28618,7 @@
       </c>
       <c r="Q472" s="8"/>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A473" s="40" t="s">
         <v>993</v>
       </c>
@@ -28664,7 +28659,7 @@
       </c>
       <c r="Q473" s="8"/>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A474" s="40" t="s">
         <v>993</v>
       </c>
@@ -28705,7 +28700,7 @@
       </c>
       <c r="Q474" s="8"/>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A475" s="40" t="s">
         <v>993</v>
       </c>
@@ -28744,7 +28739,7 @@
       </c>
       <c r="Q475" s="8"/>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A476" s="40" t="s">
         <v>994</v>
       </c>
@@ -28783,7 +28778,7 @@
       </c>
       <c r="Q476" s="8"/>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A477" s="40" t="s">
         <v>994</v>
       </c>
@@ -28822,7 +28817,7 @@
       </c>
       <c r="Q477" s="8"/>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A478" s="40" t="s">
         <v>994</v>
       </c>
@@ -28861,7 +28856,7 @@
       </c>
       <c r="Q478" s="8"/>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A479" s="40" t="s">
         <v>994</v>
       </c>
@@ -28902,7 +28897,7 @@
       </c>
       <c r="Q479" s="8"/>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A480" s="40" t="s">
         <v>994</v>
       </c>
@@ -28943,7 +28938,7 @@
       </c>
       <c r="Q480" s="8"/>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A481" s="40" t="s">
         <v>994</v>
       </c>
@@ -28984,7 +28979,7 @@
       </c>
       <c r="Q481" s="8"/>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A482" s="40" t="s">
         <v>994</v>
       </c>
@@ -29025,7 +29020,7 @@
       </c>
       <c r="Q482" s="8"/>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A483" s="40" t="s">
         <v>994</v>
       </c>
@@ -29064,7 +29059,7 @@
       </c>
       <c r="Q483" s="8"/>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A484" s="40" t="s">
         <v>994</v>
       </c>
@@ -29103,7 +29098,7 @@
       </c>
       <c r="Q484" s="8"/>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A485" s="40" t="s">
         <v>994</v>
       </c>
@@ -29144,7 +29139,7 @@
       </c>
       <c r="Q485" s="8"/>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A486" s="40" t="s">
         <v>994</v>
       </c>
@@ -29183,7 +29178,7 @@
       </c>
       <c r="Q486" s="8"/>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A487" s="40" t="s">
         <v>994</v>
       </c>
@@ -29222,7 +29217,7 @@
       </c>
       <c r="Q487" s="8"/>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A488" s="40" t="s">
         <v>994</v>
       </c>
@@ -29263,7 +29258,7 @@
       </c>
       <c r="Q488" s="8"/>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A489" s="40" t="s">
         <v>994</v>
       </c>
@@ -29304,7 +29299,7 @@
       </c>
       <c r="Q489" s="8"/>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A490" s="40" t="s">
         <v>995</v>
       </c>
@@ -29343,7 +29338,7 @@
       </c>
       <c r="Q490" s="8"/>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A491" s="40" t="s">
         <v>995</v>
       </c>
@@ -29382,7 +29377,7 @@
       </c>
       <c r="Q491" s="8"/>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A492" s="40" t="s">
         <v>995</v>
       </c>
@@ -29421,7 +29416,7 @@
       </c>
       <c r="Q492" s="8"/>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A493" s="40" t="s">
         <v>995</v>
       </c>
@@ -29460,7 +29455,7 @@
       </c>
       <c r="Q493" s="8"/>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A494" s="40" t="s">
         <v>995</v>
       </c>
@@ -29501,7 +29496,7 @@
       </c>
       <c r="Q494" s="8"/>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A495" s="40" t="s">
         <v>995</v>
       </c>
@@ -29542,7 +29537,7 @@
       </c>
       <c r="Q495" s="8"/>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A496" s="40" t="s">
         <v>995</v>
       </c>
@@ -29583,7 +29578,7 @@
       </c>
       <c r="Q496" s="8"/>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A497" s="40" t="s">
         <v>995</v>
       </c>
@@ -29622,7 +29617,7 @@
       </c>
       <c r="Q497" s="8"/>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A498" s="40" t="s">
         <v>995</v>
       </c>
@@ -29661,7 +29656,7 @@
       </c>
       <c r="Q498" s="8"/>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A499" s="40" t="s">
         <v>995</v>
       </c>
@@ -29700,7 +29695,7 @@
       </c>
       <c r="Q499" s="8"/>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A500" s="40" t="s">
         <v>995</v>
       </c>
@@ -29739,7 +29734,7 @@
       </c>
       <c r="Q500" s="8"/>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A501" s="40" t="s">
         <v>995</v>
       </c>
@@ -29778,7 +29773,7 @@
       </c>
       <c r="Q501" s="8"/>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A502" s="40" t="s">
         <v>995</v>
       </c>
@@ -29819,7 +29814,7 @@
       </c>
       <c r="Q502" s="8"/>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A503" s="40" t="s">
         <v>995</v>
       </c>
@@ -29860,7 +29855,7 @@
       </c>
       <c r="Q503" s="8"/>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A504" s="40" t="s">
         <v>995</v>
       </c>
@@ -29899,7 +29894,7 @@
       </c>
       <c r="Q504" s="8"/>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A505" s="40" t="s">
         <v>995</v>
       </c>
@@ -29938,7 +29933,7 @@
       </c>
       <c r="Q505" s="8"/>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A506" s="40" t="s">
         <v>995</v>
       </c>
@@ -29979,7 +29974,7 @@
       </c>
       <c r="Q506" s="8"/>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A507" s="40" t="s">
         <v>995</v>
       </c>
@@ -30020,7 +30015,7 @@
       </c>
       <c r="Q507" s="8"/>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A508" s="40" t="s">
         <v>995</v>
       </c>
@@ -30061,7 +30056,7 @@
       </c>
       <c r="Q508" s="8"/>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A509" s="40" t="s">
         <v>995</v>
       </c>
@@ -30102,7 +30097,7 @@
       </c>
       <c r="Q509" s="8"/>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A510" s="40" t="s">
         <v>995</v>
       </c>
@@ -30141,7 +30136,7 @@
       </c>
       <c r="Q510" s="8"/>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A511" s="40" t="s">
         <v>995</v>
       </c>
@@ -30182,7 +30177,7 @@
       </c>
       <c r="Q511" s="8"/>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A512" s="40" t="s">
         <v>995</v>
       </c>
@@ -30223,7 +30218,7 @@
       </c>
       <c r="Q512" s="8"/>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A513" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30262,7 +30257,7 @@
       </c>
       <c r="Q513" s="8"/>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A514" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30301,7 +30296,7 @@
       </c>
       <c r="Q514" s="8"/>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A515" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30342,7 +30337,7 @@
       </c>
       <c r="Q515" s="8"/>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A516" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30383,7 +30378,7 @@
       </c>
       <c r="Q516" s="8"/>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A517" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30422,7 +30417,7 @@
       </c>
       <c r="Q517" s="8"/>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A518" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30463,7 +30458,7 @@
       </c>
       <c r="Q518" s="8"/>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A519" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30502,7 +30497,7 @@
       </c>
       <c r="Q519" s="8"/>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A520" s="40" t="s">
         <v>1097</v>
       </c>
@@ -30541,7 +30536,7 @@
       </c>
       <c r="Q520" s="8"/>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A521" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30580,7 +30575,7 @@
       </c>
       <c r="Q521" s="8"/>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A522" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30619,7 +30614,7 @@
       </c>
       <c r="Q522" s="8"/>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A523" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30660,7 +30655,7 @@
       </c>
       <c r="Q523" s="8"/>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A524" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30701,7 +30696,7 @@
       </c>
       <c r="Q524" s="8"/>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A525" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30740,7 +30735,7 @@
       </c>
       <c r="Q525" s="8"/>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A526" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30779,7 +30774,7 @@
       </c>
       <c r="Q526" s="8"/>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A527" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30820,7 +30815,7 @@
       </c>
       <c r="Q527" s="8"/>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A528" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30861,7 +30856,7 @@
       </c>
       <c r="Q528" s="8"/>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A529" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30900,7 +30895,7 @@
       </c>
       <c r="Q529" s="8"/>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A530" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30941,7 +30936,7 @@
       </c>
       <c r="Q530" s="8"/>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A531" s="40" t="s">
         <v>1106</v>
       </c>
@@ -30980,7 +30975,7 @@
       </c>
       <c r="Q531" s="8"/>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A532" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31019,7 +31014,7 @@
       </c>
       <c r="Q532" s="8"/>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A533" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31060,7 +31055,7 @@
       </c>
       <c r="Q533" s="8"/>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A534" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31099,7 +31094,7 @@
       </c>
       <c r="Q534" s="8"/>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A535" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31140,7 +31135,7 @@
       </c>
       <c r="Q535" s="8"/>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A536" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31179,7 +31174,7 @@
       </c>
       <c r="Q536" s="8"/>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A537" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31218,7 +31213,7 @@
       </c>
       <c r="Q537" s="8"/>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A538" s="40" t="s">
         <v>1095</v>
       </c>
@@ -31259,7 +31254,7 @@
       </c>
       <c r="Q538" s="8"/>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A539" s="40" t="s">
         <v>1130</v>
       </c>
@@ -31298,7 +31293,7 @@
       </c>
       <c r="Q539" s="8"/>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A540" s="40" t="s">
         <v>1130</v>
       </c>
@@ -31339,7 +31334,7 @@
       </c>
       <c r="Q540" s="8"/>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A541" s="40" t="s">
         <v>1130</v>
       </c>
@@ -31380,7 +31375,7 @@
       </c>
       <c r="Q541" s="8"/>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A542" s="40" t="s">
         <v>1130</v>
       </c>
@@ -31419,7 +31414,7 @@
       </c>
       <c r="Q542" s="8"/>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A543" s="40" t="s">
         <v>1130</v>
       </c>
@@ -31458,7 +31453,7 @@
       </c>
       <c r="Q543" s="8"/>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A544" s="40" t="s">
         <v>1130</v>
       </c>
@@ -31499,7 +31494,7 @@
       </c>
       <c r="Q544" s="8"/>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A545" s="40" t="s">
         <v>1146</v>
       </c>
@@ -31538,7 +31533,7 @@
       </c>
       <c r="Q545" s="8"/>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A546" s="40" t="s">
         <v>1146</v>
       </c>
@@ -31579,7 +31574,7 @@
       </c>
       <c r="Q546" s="8"/>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A547" s="40" t="s">
         <v>1146</v>
       </c>
@@ -31618,7 +31613,7 @@
       </c>
       <c r="Q547" s="8"/>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A548" s="40" t="s">
         <v>1146</v>
       </c>
@@ -31657,7 +31652,7 @@
       </c>
       <c r="Q548" s="8"/>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A549" s="40" t="s">
         <v>1146</v>
       </c>
@@ -31719,21 +31714,21 @@
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="129.25" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -31765,7 +31760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
@@ -31791,7 +31786,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>300</v>
       </c>
@@ -31817,7 +31812,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>398</v>
       </c>
@@ -31843,7 +31838,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>467</v>
       </c>
@@ -31869,7 +31864,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>543</v>
       </c>
@@ -31895,7 +31890,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>651</v>
       </c>
@@ -31921,7 +31916,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>988</v>
       </c>
@@ -31947,7 +31942,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>989</v>
       </c>
@@ -31988,20 +31983,20 @@
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="2" max="2" width="31.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
@@ -32030,7 +32025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
@@ -32046,7 +32041,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="47"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
@@ -32062,7 +32057,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -32078,7 +32073,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>43</v>
       </c>
@@ -32094,7 +32089,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>43</v>
       </c>
@@ -32110,7 +32105,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>43</v>
       </c>
@@ -32126,7 +32121,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>43</v>
       </c>
@@ -32142,7 +32137,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>43</v>
       </c>
@@ -32158,7 +32153,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>300</v>
       </c>
@@ -32174,7 +32169,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>300</v>
       </c>
@@ -32190,7 +32185,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>300</v>
       </c>
@@ -32206,7 +32201,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>398</v>
       </c>
@@ -32222,7 +32217,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>398</v>
       </c>
@@ -32238,7 +32233,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="47"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>398</v>
       </c>
@@ -32254,7 +32249,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>398</v>
       </c>
@@ -32270,7 +32265,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>467</v>
       </c>
@@ -32286,7 +32281,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>467</v>
       </c>
@@ -32302,7 +32297,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>467</v>
       </c>
@@ -32318,7 +32313,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="47"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>467</v>
       </c>
@@ -32333,7 +32328,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>467</v>
       </c>
@@ -32348,7 +32343,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>467</v>
       </c>
@@ -32363,7 +32358,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>467</v>
       </c>
@@ -32378,7 +32373,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>543</v>
       </c>
@@ -32393,7 +32388,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>543</v>
       </c>
@@ -32408,7 +32403,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>543</v>
       </c>
@@ -32423,7 +32418,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>543</v>
       </c>
@@ -32438,7 +32433,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>543</v>
       </c>
@@ -32453,7 +32448,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>543</v>
       </c>
@@ -32468,7 +32463,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>651</v>
       </c>
@@ -32483,7 +32478,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>651</v>
       </c>
@@ -32498,7 +32493,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>651</v>
       </c>
@@ -32513,7 +32508,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>651</v>
       </c>
@@ -32528,7 +32523,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>651</v>
       </c>
@@ -32543,7 +32538,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>651</v>
       </c>
@@ -32558,7 +32553,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>651</v>
       </c>
@@ -32573,7 +32568,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>651</v>
       </c>
@@ -32588,7 +32583,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>651</v>
       </c>
@@ -32603,7 +32598,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>651</v>
       </c>
@@ -32618,7 +32613,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>651</v>
       </c>
@@ -32633,7 +32628,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>651</v>
       </c>
@@ -32648,7 +32643,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>651</v>
       </c>
@@ -32663,7 +32658,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>651</v>
       </c>
@@ -32678,7 +32673,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
         <v>874</v>
       </c>
@@ -32693,7 +32688,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
         <v>874</v>
       </c>
@@ -32708,7 +32703,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>874</v>
       </c>
@@ -32723,7 +32718,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
         <v>874</v>
       </c>
@@ -32738,7 +32733,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
         <v>874</v>
       </c>
@@ -32753,7 +32748,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="40" t="s">
         <v>874</v>
       </c>
@@ -32768,7 +32763,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="40" t="s">
         <v>989</v>
       </c>
@@ -32783,7 +32778,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>989</v>
       </c>
@@ -32798,7 +32793,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="40" t="s">
         <v>989</v>
       </c>
@@ -32813,7 +32808,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="40" t="s">
         <v>989</v>
       </c>
@@ -32828,7 +32823,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="40" t="s">
         <v>989</v>
       </c>
@@ -32843,7 +32838,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="40" t="s">
         <v>989</v>
       </c>
@@ -32858,7 +32853,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="s">
         <v>989</v>
       </c>
@@ -32873,7 +32868,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="40" t="s">
         <v>989</v>
       </c>
